--- a/bookz.xlsx
+++ b/bookz.xlsx
@@ -2509,7 +2509,7 @@
     <t xml:space="preserve">Disaster Recovery (EC-Council Disaster Recovery Professional (Edrp))</t>
   </si>
   <si>
-    <t xml:space="preserve">This is one of two books in the DISASTER RECOVERY/VIRTUALIZATION SECURITY SERIES, designed to fortify disaster recovery preparation and virtualization technology knowledge of information security students, system administrators, systems engineers, enterprise system architects, and any IT professional who is concerned about the integrity of their network infrastructure. Topics include disaster recovery planning, risk control policies and countermeasures, disaster recovery tools and services, and virtualization principles. The series when used in its entirety helps prepare readers to take and succeed on the E|CDR and E|CVT, Disaster Recovery and Virtualization Technology certification exam from EC-Council. The EC-Council Certified Disaster Recovery and Virtualization Technology professional will have a better understanding of how to set up disaster recovery plans using traditional and virtual technologies to ensure business continuity in the event of a disaster.</t>
+    <t xml:space="preserve">This is one of two books in the DISASTER RECOVERY/VIRTUALIZATION SECURITY SERIES, designed to fortify disaster recovery preparation and virtualization technology knowledge of information security students, system administrators, systems engineers, enterprise system architects, and any IT professional who is concerned about the integrity of their network infrastructure. Topics include disaster recovery planning, risk control policies and countermeasures, disaster recovery tools and services, and virtualization principles. The series when used in its entirety helps prepare readers to take and succeed on the E-CDR and E-CVT, Disaster Recovery and Virtualization Technology certification exam from EC-Council. The EC-Council Certified Disaster Recovery and Virtualization Technology professional will have a better understanding of how to set up disaster recovery plans using traditional and virtual technologies to ensure business continuity in the event of a disaster.</t>
   </si>
   <si>
     <t xml:space="preserve">Virtualization Security: Business Continuity (EC-Council Disaster Recovery Professional (Edrp))</t>
@@ -2524,7 +2524,7 @@
     <t xml:space="preserve">Penetration Testing: Communication Media Testing (EC-Council Certified Security Analyst (ECSA))</t>
   </si>
   <si>
-    <t xml:space="preserve">The Security Analyst Series from EC-Council | Press is comprised of five books covering a broad base of topics in advanced penetration testing and information security analysis. The content of this series is designed to expose the reader to groundbreaking methodologies in conducting thorough information security analysis, as well as advanced penetration testing techniques. Armed with the knowledge from the Security Analyst series, along with proper experience, readers will be able to perform the intensive assessments required to effectively identify and mitigate risks to the security of the organization's infrastructure. The series prepares readers for the EC-Council Certified Security Analyst (E|CSA) certification. Penetration Testing: Network and Perimeter Testing. Network and Perimeter Testing coverage includes firewall and ids penetration testing as well as penetration testing of laptops, PDA's, cellphones, e-mail, and security patches.</t>
+    <t xml:space="preserve">The Security Analyst Series from EC-Council - Press is comprised of five books covering a broad base of topics in advanced penetration testing and information security analysis. The content of this series is designed to expose the reader to groundbreaking methodologies in conducting thorough information security analysis, as well as advanced penetration testing techniques. Armed with the knowledge from the Security Analyst series, along with proper experience, readers will be able to perform the intensive assessments required to effectively identify and mitigate risks to the security of the organization's infrastructure. The series prepares readers for the EC-Council Certified Security Analyst (E-CSA) certification. Penetration Testing: Network and Perimeter Testing. Network and Perimeter Testing coverage includes firewall and ids penetration testing as well as penetration testing of laptops, PDA's, cellphones, e-mail, and security patches.</t>
   </si>
   <si>
     <t xml:space="preserve">Computer Forensics: Investigating Data and Image Files</t>
@@ -2554,13 +2554,13 @@
     <t xml:space="preserve">Network Defense: Perimeter Defense Mechanisms</t>
   </si>
   <si>
-    <t xml:space="preserve">The Network Defense Series from EC-Council | Press is comprised of 5 books designed to educate learners from a vendor-neutral standpoint how to defend the networks they manage. This series covers the fundamental skills in evaluating internal and external threats to network security and design, how to enforce network level security policies, and how to ultimately protect an organization's information. The books in the series cover a broad range of topics from secure network fundamentals, protocols &amp; analysis, standards and policy, hardening infrastructure, to configuring IPS, IDS, firewalls, bastion host and honeypots. Learners completing this series will have a full understanding of defensive measures taken to secure their organization's information, and along with the proper experience these books will prepare readers for the EC-Council Network Security Administrator (E|NSA) certification. An organization is only as strong as its weakest link. The same is true in network security. Mis-configurations, outdated software and technical glitches are often the easiest point of entry for a hacker. This book, the third in the series, is designed to teach the potential security practitioner how to harden the network infrastructure, evaluate hardware and software configurations and introduce log analysis, creating a strong foundation for Network Security Troubleshooting, response, and repair.</t>
+    <t xml:space="preserve">The Network Defense Series from EC-Council - Press is comprised of 5 books designed to educate learners from a vendor-neutral standpoint how to defend the networks they manage. This series covers the fundamental skills in evaluating internal and external threats to network security and design, how to enforce network level security policies, and how to ultimately protect an organization's information. The books in the series cover a broad range of topics from secure network fundamentals, protocols &amp; analysis, standards and policy, hardening infrastructure, to configuring IPS, IDS, firewalls, bastion host and honeypots. Learners completing this series will have a full understanding of defensive measures taken to secure their organization's information, and along with the proper experience these books will prepare readers for the EC-Council Network Security Administrator (E-NSA) certification. An organization is only as strong as its weakest link. The same is true in network security. Mis-configurations, outdated software and technical glitches are often the easiest point of entry for a hacker. This book, the third in the series, is designed to teach the potential security practitioner how to harden the network infrastructure, evaluate hardware and software configurations and introduce log analysis, creating a strong foundation for Network Security Troubleshooting, response, and repair.</t>
   </si>
   <si>
     <t xml:space="preserve">Ethical Hacking and Countermeasures: Threats and Defense Mechanisms</t>
   </si>
   <si>
-    <t xml:space="preserve">The EC-Council | Press Ethical Hacking and Countermeasures Series is comprised of five books covering a broad base of topics in offensive network security, ethical hacking, and network defense and countermeasures. The content of this series is designed to immerse the reader into an interactive environment where they will be shown how to scan, test, hack and secure information systems. With the full series of books, the reader will gain in-depth knowledge and practical experience with essential security systems, and become prepared to succeed on the Certified Ethical Hacker, or C|EH, certification from EC-Council. This certification covers a plethora of offensive security topics ranging from how perimeter defenses work, to scanning and attacking simulated networks. A wide variety of tools, viruses, and malware is presented in this and the other four books, providing a complete understanding of the tactics and tools used by hackers. By gaining a thorough understanding of how hackers operate, an Ethical Hacker will be able to set up strong countermeasures and defensive systems to protect an organization's critical infrastructure and information.</t>
+    <t xml:space="preserve">The EC-Council - Press Ethical Hacking and Countermeasures Series is comprised of five books covering a broad base of topics in offensive network security, ethical hacking, and network defense and countermeasures. The content of this series is designed to immerse the reader into an interactive environment where they will be shown how to scan, test, hack and secure information systems. With the full series of books, the reader will gain in-depth knowledge and practical experience with essential security systems, and become prepared to succeed on the Certified Ethical Hacker, or C-EH, certification from EC-Council. This certification covers a plethora of offensive security topics ranging from how perimeter defenses work, to scanning and attacking simulated networks. A wide variety of tools, viruses, and malware is presented in this and the other four books, providing a complete understanding of the tactics and tools used by hackers. By gaining a thorough understanding of how hackers operate, an Ethical Hacker will be able to set up strong countermeasures and defensive systems to protect an organization's critical infrastructure and information.</t>
   </si>
   <si>
     <t xml:space="preserve">Ethical Hacking and Countermeasures: Linux, Macintosh and Mobile Systems</t>
@@ -2569,7 +2569,7 @@
     <t xml:space="preserve">Wireless Safety</t>
   </si>
   <si>
-    <t xml:space="preserve">Intended for anyone from the mobile user to a student or professional working in a wireless environment, Wireless Safety serves to expose the reader to diverse technologies while mapping them to real world applications. It provides an overview of WAP (wireless application protocol) and how developers view these enabling technologies, and gives a peek into future trends. Topics include wireless signal propagation, IEEE and ETSI Wireless Standards, WLANs and Operation, Wireless Protocols and Communication Languages, Wireless Devices, and Wireless Security. Wireless Safety requires no pre-requisite knowledge and aims to educate in simple applications of these technologies. Wireless Safety breaks the myths of wireless computing and reveals the security aspects of wireless and what can be done to secure access, while preparing readers for success on the Wireless|5 certification from EC-Council. For those already in the field, this certification provides the knowledge to excel in the workplace and provides a path for career advancement. For those in the classroom, this book lays a strong foundation to explore technology further.</t>
+    <t xml:space="preserve">Intended for anyone from the mobile user to a student or professional working in a wireless environment, Wireless Safety serves to expose the reader to diverse technologies while mapping them to real world applications. It provides an overview of WAP (wireless application protocol) and how developers view these enabling technologies, and gives a peek into future trends. Topics include wireless signal propagation, IEEE and ETSI Wireless Standards, WLANs and Operation, Wireless Protocols and Communication Languages, Wireless Devices, and Wireless Security. Wireless Safety requires no pre-requisite knowledge and aims to educate in simple applications of these technologies. Wireless Safety breaks the myths of wireless computing and reveals the security aspects of wireless and what can be done to secure access, while preparing readers for success on the Wireless-5 certification from EC-Council. For those already in the field, this certification provides the knowledge to excel in the workplace and provides a path for career advancement. For those in the classroom, this book lays a strong foundation to explore technology further.</t>
   </si>
   <si>
     <t xml:space="preserve">Ethical Hacking and Countermeasures: Secure Network Infrastructures</t>
@@ -2587,7 +2587,7 @@
     <t xml:space="preserve">978-1-4354-8360-6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethical Hacking and Countermeasures Series is comprised of five books covering a broad base of topics in offensive network security, ethical hacking, and network defense and countermeasures. The content of this series is designed to immerse the reader into an interactive environment where they will be shown how to scan, test, hack and secure information systems. With the full series of books, the reader will gain in-depth knowledge and practical experience with essential security systems, and become prepared to succeed on the Certified Ethical Hacker, or C|EH, certification from EC-Council. This certification covers a plethora of offensive security topics ranging from how perimeter defenses work, to scanning and attacking simulated networks. A wide variety of tools, viruses, and malware is presented in this and the other four books, providing a complete understanding of the tactics and tools used by hackers. By gaining a thorough understanding of how hackers operate, an Ethical Hacker will be able to set up strong countermeasures and defensive systems to protect an organization's critical infrastructure and information.</t>
+    <t xml:space="preserve">Ethical Hacking and Countermeasures Series is comprised of five books covering a broad base of topics in offensive network security, ethical hacking, and network defense and countermeasures. The content of this series is designed to immerse the reader into an interactive environment where they will be shown how to scan, test, hack and secure information systems. With the full series of books, the reader will gain in-depth knowledge and practical experience with essential security systems, and become prepared to succeed on the Certified Ethical Hacker, or C-EH, certification from EC-Council. This certification covers a plethora of offensive security topics ranging from how perimeter defenses work, to scanning and attacking simulated networks. A wide variety of tools, viruses, and malware is presented in this and the other four books, providing a complete understanding of the tactics and tools used by hackers. By gaining a thorough understanding of how hackers operate, an Ethical Hacker will be able to set up strong countermeasures and defensive systems to protect an organization's critical infrastructure and information.</t>
   </si>
   <si>
     <t xml:space="preserve">978-1-4354-8361-3</t>
@@ -2845,7 +2845,7 @@
     <t xml:space="preserve">Protecting the public from genuine threats to security and safeguarding fundamental rights involves a delicate balance, and has become a particularly complex challenge in recent years. Terror attacks worldwide have triggered broad measures allowing intelligence services to cast ever-wider nets in the hope of preventing further violence. At the same time, the digital age has produced technological innovations facilitating large-scale communications data monitoring – which could easily be abused. These developments affect a variety of fundamental rights protected by European Union (EU) law, particularly the rights to privacy and data protection – enshrined in Articles 7 and 8 of the Charter of Fundamental Rights of the European Union, the EU treaties and EU directives. The Snowden revelations, which uncovered extensive and indiscriminate surveillance efforts worldwide, highlight that violations of these rights are not merely a theoretical concern. The sheer magnitude of the uncovered intelligence activity has prompted disquiet and underscored the importance of maintaining effective mechanisms to help prevent fundamental rights encroachments. The European Parliament responded with a resolution which, among others, calls on the European Union Agency for Fundamental Rights to research thoroughly fundamental rights protection in the context of surveillance, in particular in terms of available remedies. This report – which constitutes the first part of FRA’s response to this request – aims to support the adoption and meaningful implementation of oversight mechanisms in the EU and its Member States. It does so by analysing the legal frameworks on surveillance in place in EU Member States, focusing on so-called ‘mass surveillance’, which carries a particularly high potential for abuse. The report does not assess the implementation of the respective laws; instead, it maps the relevant legal frameworks in the Member States. It also details oversight mechanisms introduced across the EU, outlines the work of entities tasked with overseeing surveillance measures, and presents the various remedies available to individuals seeking to challenge such intelligence activities. The research findings presented in this report demonstrate the complex considerations involved in safeguarding fundamental rights in the context of surveillance. Finding a balance between national security protection and respect for fundamental rights is a challenge that requires thorough and candid discussion. This report contributes to that discussion.</t>
   </si>
   <si>
-    <t xml:space="preserve">Занимайся хакингом с ловкостью порнозвезды (Взламываем планету | Книга 1)</t>
+    <t xml:space="preserve">Занимайся хакингом с ловкостью порнозвезды (Взламываем планету - Книга 1)</t>
   </si>
   <si>
     <t xml:space="preserve">Sparc Flow</t>
@@ -2947,7 +2947,7 @@
     <t xml:space="preserve">Книга повествует о тяжелых, но интересных буднях "багхантера". Приводятся раборы реальных отчетов по выявленным уязвимостям в популярных интернет-сервисах. Описание по каждому репорту снабжено подробным описанием действий исследователя, а так же выявленной им проблеме.</t>
   </si>
   <si>
-    <t xml:space="preserve">Занимайся хакингом как легенда (Взламываем планету | Книга 4)</t>
+    <t xml:space="preserve">Занимайся хакингом как легенда (Взламываем планету - Книга 4)</t>
   </si>
   <si>
     <t xml:space="preserve">Это история хакера, который во время взлома компании встречает достойный отпор: машинное обучение, анализ поведения, искусственный интеллект... Большая часть хакерских инструментов обломаются в подобной агрессивной среде. Что делать хакеру, который сталкивается с подобным, под завязку экипированным противником? Кибербезопасность в лучшем виде Мы начнем с построенияК6 живучей C&amp;C-инфраструктуры, используя облачные провайдеры, HTTP Redirector-ы и SSH туннели. Идея состоит в том, чтобы укрыться за слоем одноразовых машин, которые мы сможем обновлять в течение считанных секунд для полного изменения наших отпечатков. Далее мы поэтапно настроим фишинговую платформу: фейковый веб-сайт, Postfix-сервер, DKIM-подписи, SPF и DMARC. Искусство проникновения Вместо того, чтобы напрямую хакнуть нашу цель (оффшорную компанию), мы нацелимся на одного из их поставщиков, которого мы идентифицируем при помощи техник OSINT. Мы соберем пароли с помощью своей фишинговой платформы и воспользуемся удаленным доступом через Citrix для того, чтобы сделать первый шаг внутрь. Мы обойдем Applocker и Ограниченный языковой режим в PowerShell, чтобы добиться выполнения кода, затем приступим к разведке и сбору данных по Active Directory. Через несколько минут нас выбросят из сети за подозрительную активность. Искусство эксплуатации Мы эксплуатируем уязвимость в паттернах паролей, чтобы вернуться обратно на сервер Citrix. Мы сталкиваемся с MS ATA и QRADAR SIEM. Пытаемся обойти их, используя различные хакерские приемы, и у нас получается отключить все новые возможности безопасности Windows Server 2016 (AMSI, ScriptBlock Logging и так далее). В процессе того, как мы пытаемся заполучить учетные данные разработчиков, которые по нашему предположению работают над продуктом, используемым в оффшорной компании, мы также сталкиваемся с антивирусом следующего поколения Windows (ATP). Завершаем работу внедрением бэкдора в бухгалтерское программное обеспечение таким образом, чтобы обойти большую часть тестов безопасности и функционала.</t>
@@ -6636,8 +6636,8 @@
   </sheetPr>
   <dimension ref="A1:M677"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A674" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H694" activeCellId="0" sqref="H694"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
